--- a/birds/Birds.xlsx
+++ b/birds/Birds.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
   <xr:revisionPtr revIDLastSave="34" documentId="11_FA5845E33EC5289E451FD19CE683F7B36E89C5C8" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{747BA8F7-181C-48B3-A551-E779D030D59E}"/>
   <bookViews>
@@ -1825,7 +1825,7 @@
   <dimension ref="A1:G201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
